--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johny-pc\Documents\UiPath\CreateLoan_Account\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johny-pc\Documents\UiPath\UiPath_LoanAccount\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01498F11-A29C-4EA5-AD81-22C73B74C4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085806C8-0FA6-40E9-BD57-E258A5722FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -162,10 +162,28 @@
     <t>PathExcel</t>
   </si>
   <si>
-    <t>D:\UiPath\LoanACC\DataInput.xlsx</t>
-  </si>
-  <si>
     <t>Loan_Account</t>
+  </si>
+  <si>
+    <t>D:\UiPath\LoanACC</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>DataInput.xlsx</t>
+  </si>
+  <si>
+    <t>SheetName</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>StatusColumn</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -546,7 +564,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -596,7 +614,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -629,13 +647,34 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johny-pc\Documents\UiPath\UiPath_LoanAccount\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanthakhan\Documents\UiPath\UiPath_LoanAccount\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085806C8-0FA6-40E9-BD57-E258A5722FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -165,9 +164,6 @@
     <t>Loan_Account</t>
   </si>
   <si>
-    <t>D:\UiPath\LoanACC</t>
-  </si>
-  <si>
     <t>FileName</t>
   </si>
   <si>
@@ -184,12 +180,15 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>D:\RobotExcel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -559,20 +558,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -620,7 +619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -630,7 +629,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -647,32 +646,32 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1670,19 +1669,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1719,7 +1718,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1730,7 +1729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1844,7 +1843,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2833,17 +2832,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -179,10 +179,10 @@
     <t>StatusColumn</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>D:\RobotExcel</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -646,7 +646,7 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -671,7 +671,7 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -182,7 +182,19 @@
     <t>D:\RobotExcel</t>
   </si>
   <si>
-    <t>K</t>
+    <t>J</t>
+  </si>
+  <si>
+    <t>CollateralValueColumn</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>CollateralCurrencyColumn</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -563,7 +575,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -674,8 +686,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -182,9 +182,6 @@
     <t>D:\RobotExcel</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>CollateralValueColumn</t>
   </si>
   <si>
@@ -195,6 +192,15 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>CIFColumn</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -572,10 +578,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -683,26 +689,33 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -1687,6 +1700,7 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -185,22 +185,40 @@
     <t>CollateralValueColumn</t>
   </si>
   <si>
+    <t>CollateralCurrencyColumn</t>
+  </si>
+  <si>
+    <t>CIFColumn</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>LoanAccountColumn</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>LoanPeriodColumn</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>LoanAmountColumn</t>
+  </si>
+  <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>CollateralCurrencyColumn</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>CIFColumn</t>
-  </si>
-  <si>
-    <t>K</t>
   </si>
 </sst>
 </file>
@@ -578,10 +596,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -689,51 +707,72 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>53</v>
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1701,6 +1740,8 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
